--- a/medicine/Enfance/Portage_d'enfants/Portage_d'enfants.xlsx
+++ b/medicine/Enfance/Portage_d'enfants/Portage_d'enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Portage_d%27enfants</t>
+          <t>Portage_d'enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « portage d'enfants » fait référence aux techniques permettant de porter les enfants de telle sorte qu'il y ait un contact physique étroit entre le porteur et celui-ci. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Portage_d%27enfants</t>
+          <t>Portage_d'enfants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Méthodes de portage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux systèmes existent : 
 Les écharpes (ou foulard), qui sont des bandes de tissu, larges d'environ 70 cm, et longues de 2 à 7 mètres, élastiques ou non, qui permettent de porter sur le devant, le côté ou le dos, selon le nœud utilisé et l'âge du bébé. C'est le type de portage le plus polyvalent et ancien, bien que le portage traditionnel se fasse en tissu plutôt court, plutôt tissé et plutôt sur le côté ou le dos.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Portage_d%27enfants</t>
+          <t>Portage_d'enfants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Effets du portage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les mamans, il semble que le portage contribue à réduire les risques de dépression du post-partum, la mère se sentant alors forcément moins à l’écart. 
 La présence sur soi du bébé faciliterait la pratique de  l’allaitement, à la fois par la proximité qui permet une réponse plus adaptée de la mère et par le contact qui facilite l'expression des compétences du nourrisson et la sécrétion des hormones. Par ailleurs, les écharpes ou sling peuvent être utilisés pour placer confortablement l’enfant en position d’allaitement.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Portage_d%27enfants</t>
+          <t>Portage_d'enfants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Évolution du portage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Du froid extrême auquel sont soumis les Inuits aux températures caniculaires dans lesquelles vivent les Touaregs, le bébé porté contre sa mère est ensuite protégé de l’extérieur par l’amauti dans le premier cas ou par la djellaba dans l’autre. 
 En revanche, l’introduction du portage en Occident s’est accommodé des vêtements de ville classique et de l’absence de vêtements de portage. Si bien que l’enfant est alors trop souvent porté par-dessus les vêtements du porteur, ce qui ne lui permet pas d’être protégé du chaud ni surtout du froid.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Portage_d%27enfants</t>
+          <t>Portage_d'enfants</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,13 +631,15 @@
           <t>Avantages du portage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon le type de portage utilisé (peau à peau ou par-dessus les vêtements, sur le ventre ou le dos, etc), plusieurs avantages peuvent être mis en avant :
 En peau à peau, l’enfant est à température idéale, aux environs de 37 °C, quelle que soit la température ambiante.
-On constate une diminution des pleurs de 50% en temps normal [1], et 85% lors des procédures médicales douloureuses (prélèvements sanguins, vaccins)[2].
-Le caractère social du bébé est encouragé, les sourires-réponses et les babillage apparaissant quelques semaines plus tôt[3]. En effet, l'enfant est stimulé de manière continue et en douceur.
-Le développement de l'attachement entre le porteur et l'enfant se fait plus facilement, le contact physique est mieux supporté par l'enfant [3].
+On constate une diminution des pleurs de 50% en temps normal , et 85% lors des procédures médicales douloureuses (prélèvements sanguins, vaccins).
+Le caractère social du bébé est encouragé, les sourires-réponses et les babillage apparaissant quelques semaines plus tôt. En effet, l'enfant est stimulé de manière continue et en douceur.
+Le développement de l'attachement entre le porteur et l'enfant se fait plus facilement, le contact physique est mieux supporté par l'enfant .
 Il respecte la cambrure naturelle de la colonne vertébrale de l'enfant, à la condition que le portage soit dit "physiologique", c'est-à-dire qu'il soit assis comme sur un hamac, et non soutenu par l'entrejambe. Certains modes de portage permettraient aussi de lutter efficacement contre la dysplasie de la hanche des nouveau-nés, en particulier les portages qui permettent de porter le bébé sur le côté.
 Le portage a également un aspect pratique: il libère les bras du porteur, qui peut alors vaquer à ses occupations ou à ses déplacement sans pour autant laisser le bébé seul.</t>
         </is>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Portage_d%27enfants</t>
+          <t>Portage_d'enfants</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Critiques du portage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les détracteurs font valoir que l’apprentissage de la capacité à trouver un sommeil autonome est d’autant retardé. Mais d'autres pensent qu'en étant porté, l’enfant participe à la vie quotidienne, ce qui semble le rassurer. Constamment bercé, il serait plus calme que dans un lit immobile. 
 </t>
